--- a/indoor_topology/debug_topology_edges.xlsx
+++ b/indoor_topology/debug_topology_edges.xlsx
@@ -496,7 +496,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>648</v>
+        <v>520</v>
       </c>
     </row>
     <row r="3">
@@ -525,7 +525,7 @@
         <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>3674</v>
+        <v>3248</v>
       </c>
     </row>
     <row r="4">
@@ -554,7 +554,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>468</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5">
@@ -583,7 +583,7 @@
         <v>4</v>
       </c>
       <c r="G5" t="n">
-        <v>1980</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>650</v>
+        <v>528</v>
       </c>
     </row>
     <row r="7">
@@ -641,7 +641,7 @@
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>1440</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="8">
@@ -670,7 +670,7 @@
         <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>1628</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="9">
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>1606</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="10">
@@ -728,7 +728,7 @@
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>1273</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="11">
@@ -757,7 +757,7 @@
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>1178</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="12">
@@ -786,7 +786,7 @@
         <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>2508</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="13">
@@ -815,7 +815,7 @@
         <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>1404</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="14">
@@ -844,7 +844,7 @@
         <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>1133</v>
+        <v>891</v>
       </c>
     </row>
     <row r="15">
@@ -873,7 +873,7 @@
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>1332</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="16">
@@ -902,7 +902,7 @@
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>1869</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="17">
@@ -931,7 +931,7 @@
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>1440</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="18">
@@ -960,7 +960,7 @@
         <v>2</v>
       </c>
       <c r="G18" t="n">
-        <v>936</v>
+        <v>700</v>
       </c>
     </row>
     <row r="19">
@@ -989,7 +989,7 @@
         <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>1548</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="20">
@@ -1018,7 +1018,7 @@
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>1314</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="21">
@@ -1047,7 +1047,7 @@
         <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>1952</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="22">
@@ -1076,7 +1076,7 @@
         <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>2090</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="23">
@@ -1105,7 +1105,7 @@
         <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>1960</v>
+        <v>1728</v>
       </c>
     </row>
   </sheetData>

--- a/indoor_topology/debug_topology_edges.xlsx
+++ b/indoor_topology/debug_topology_edges.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,11 +501,11 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bedroom</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -518,43 +518,43 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>门/窗</t>
+          <t>墙</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="G3" t="n">
-        <v>3248</v>
+        <v>3634</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Bedroom</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Living Room</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>门/窗</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>350</v>
+        <v>3248</v>
       </c>
     </row>
     <row r="5">
@@ -567,23 +567,23 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Bedroom</t>
+          <t>Living Room</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>门/窗</t>
+          <t>墙</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>4</v>
+        <v>381</v>
       </c>
       <c r="G5" t="n">
-        <v>1520</v>
+        <v>8262</v>
       </c>
     </row>
     <row r="6">
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -612,7 +612,7 @@
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>528</v>
+        <v>350</v>
       </c>
     </row>
     <row r="7">
@@ -625,40 +625,40 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Hallway</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>门/窗</t>
+          <t>墙</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="G7" t="n">
-        <v>1232</v>
+        <v>385</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Hallway</t>
+          <t>Bedroom</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>Bedroom</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -667,39 +667,39 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G8" t="n">
-        <v>1440</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Hallway</t>
+          <t>Bedroom</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Bedroom</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>门/窗</t>
+          <t>墙</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>223</v>
       </c>
       <c r="G9" t="n">
-        <v>1420</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="10">
@@ -712,11 +712,11 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Bath</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -728,7 +728,7 @@
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>1105</v>
+        <v>528</v>
       </c>
     </row>
     <row r="11">
@@ -741,23 +741,23 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>门/窗</t>
+          <t>墙</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="G11" t="n">
-        <v>1020</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -786,16 +786,16 @@
         <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>2210</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Bath</t>
+          <t>Hallway</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -815,53 +815,53 @@
         <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>1216</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Hallway</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Bedroom</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>门/窗</t>
+          <t>墙</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="G14" t="n">
-        <v>891</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Bath</t>
+          <t>Hallway</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Hallway</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -873,12 +873,12 @@
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>1152</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -886,40 +886,40 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Bedroom</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>门/窗</t>
+          <t>墙</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="G16" t="n">
-        <v>1653</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>Living Room</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Bath</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -931,53 +931,53 @@
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>1248</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Bedroom</t>
+          <t>Living Room</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Bath</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>门/窗</t>
+          <t>墙</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="G18" t="n">
-        <v>700</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Hallway</t>
+          <t>Living Room</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Bedroom</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -989,55 +989,55 @@
         <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>1344</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Bath</t>
+          <t>Living Room</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>门/窗</t>
+          <t>墙</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="G20" t="n">
-        <v>1136</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>3</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Living Room</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
         <v>11</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>Hallway</t>
         </is>
       </c>
-      <c r="C21" t="n">
-        <v>21</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Hallway</t>
-        </is>
-      </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>门/窗</t>
@@ -1047,65 +1047,1486 @@
         <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>1680</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Living Room</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Hallway</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>门/窗</t>
+          <t>墙</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>161</v>
       </c>
       <c r="G22" t="n">
-        <v>1860</v>
+        <v>2737</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
+        <v>12</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Bath</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>13</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Storage</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>门/窗</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>12</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Bath</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>13</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Storage</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>墙</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>161</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2576</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>15</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>16</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Bedroom</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>门/窗</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>2</v>
+      </c>
+      <c r="G25" t="n">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>10</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Bath</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>11</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Hallway</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>门/窗</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>10</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Bath</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>11</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Hallway</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>墙</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>139</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>11</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Hallway</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>16</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Bedroom</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>门/窗</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>11</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Hallway</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>16</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Bedroom</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>墙</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>214</v>
+      </c>
+      <c r="G29" t="n">
+        <v>4824</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>13</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Storage</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>19</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>门/窗</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>17</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Bedroom</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>18</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>门/窗</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>2</v>
+      </c>
+      <c r="G31" t="n">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>11</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Hallway</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>17</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Bedroom</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>门/窗</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>11</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Hallway</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>17</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Bedroom</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>墙</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>109</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2633</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>12</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Bath</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>20</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>门/窗</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>12</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Bath</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>20</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>墙</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>197</v>
+      </c>
+      <c r="G35" t="n">
+        <v>3152</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>11</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Hallway</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>21</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Hallway</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>门/窗</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>11</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Hallway</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>21</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Hallway</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>墙</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>124</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>19</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
         <v>22</v>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>门/窗</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>19</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>22</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>墙</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>171</v>
+      </c>
+      <c r="G39" t="n">
+        <v>3420</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>22</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
         <v>24</v>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>Garage</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>门/窗</t>
         </is>
       </c>
-      <c r="F23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" t="n">
+      <c r="F40" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" t="n">
         <v>1728</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>22</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>24</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Garage</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>墙</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>384</v>
+      </c>
+      <c r="G41" t="n">
+        <v>6912</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Bedroom</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>2</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>墙</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>57</v>
+      </c>
+      <c r="G42" t="n">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Bedroom</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>4</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>墙</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>55</v>
+      </c>
+      <c r="G43" t="n">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Bedroom</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>7</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Hallway</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>墙</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>8</v>
+      </c>
+      <c r="G44" t="n">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Bedroom</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>6</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>墙</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>24</v>
+      </c>
+      <c r="G45" t="n">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>1</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Bedroom</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>14</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>墙</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>14</v>
+      </c>
+      <c r="G46" t="n">
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>3</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Living Room</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>14</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>墙</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>32</v>
+      </c>
+      <c r="G47" t="n">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>3</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Living Room</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>17</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Bedroom</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>墙</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>31</v>
+      </c>
+      <c r="G48" t="n">
+        <v>5332</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>3</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Living Room</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>18</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>墙</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>12</v>
+      </c>
+      <c r="G49" t="n">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>3</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Living Room</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>10</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Bath</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>墙</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>87</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>3</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Living Room</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>16</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Bedroom</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>墙</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>197</v>
+      </c>
+      <c r="G51" t="n">
+        <v>6244</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>3</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Living Room</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>15</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>墙</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>46</v>
+      </c>
+      <c r="G52" t="n">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>5</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Bedroom</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>13</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Storage</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>墙</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>19</v>
+      </c>
+      <c r="G53" t="n">
+        <v>3116</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>5</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Bedroom</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>7</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Hallway</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>墙</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>178</v>
+      </c>
+      <c r="G54" t="n">
+        <v>3560</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>7</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Hallway</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>24</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Garage</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>墙</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>16</v>
+      </c>
+      <c r="G55" t="n">
+        <v>12112</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>7</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Hallway</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>23</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Storage</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>墙</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>3</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>8</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Bath</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>17</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Bedroom</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>墙</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>91</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>9</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Storage</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>17</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Bedroom</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>墙</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>89</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>9</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Storage</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>18</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>墙</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>21</v>
+      </c>
+      <c r="G59" t="n">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>10</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Bath</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>18</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>墙</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>87</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>11</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Hallway</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>13</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Storage</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>墙</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>16</v>
+      </c>
+      <c r="G61" t="n">
+        <v>7968</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>11</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Hallway</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>18</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>墙</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>52</v>
+      </c>
+      <c r="G62" t="n">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>12</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Bath</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>17</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Bedroom</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>墙</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>16</v>
+      </c>
+      <c r="G63" t="n">
+        <v>3664</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>12</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Bath</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>19</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>墙</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>67</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>16</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Bedroom</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>17</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Bedroom</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>墙</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>14</v>
+      </c>
+      <c r="G65" t="n">
+        <v>2226</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>16</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Bedroom</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>21</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Hallway</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>墙</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>98</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>17</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Bedroom</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>21</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Hallway</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>墙</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>98</v>
+      </c>
+      <c r="G67" t="n">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>17</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Bedroom</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>23</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Storage</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>墙</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>192</v>
+      </c>
+      <c r="G68" t="n">
+        <v>3840</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>19</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>20</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>墙</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>165</v>
+      </c>
+      <c r="G69" t="n">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>20</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>22</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>墙</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>197</v>
+      </c>
+      <c r="G70" t="n">
+        <v>3940</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>13</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Storage</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>22</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>墙</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>16</v>
+      </c>
+      <c r="G71" t="n">
+        <v>4544</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>23</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Storage</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>24</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Garage</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>墙</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>195</v>
+      </c>
+      <c r="G72" t="n">
+        <v>3510</v>
       </c>
     </row>
   </sheetData>

--- a/indoor_topology/debug_topology_edges.xlsx
+++ b/indoor_topology/debug_topology_edges.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,11 +501,11 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bedroom</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -518,43 +518,43 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>门/窗</t>
+          <t>墙</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="G3" t="n">
-        <v>3248</v>
+        <v>3634</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Bedroom</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Living Room</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>门/窗</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>350</v>
+        <v>3248</v>
       </c>
     </row>
     <row r="5">
@@ -567,23 +567,23 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Bedroom</t>
+          <t>Living Room</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>门/窗</t>
+          <t>墙</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>4</v>
+        <v>381</v>
       </c>
       <c r="G5" t="n">
-        <v>1520</v>
+        <v>8262</v>
       </c>
     </row>
     <row r="6">
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -612,7 +612,7 @@
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>528</v>
+        <v>350</v>
       </c>
     </row>
     <row r="7">
@@ -625,40 +625,40 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Hallway</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>门/窗</t>
+          <t>墙</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="G7" t="n">
-        <v>1232</v>
+        <v>385</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Hallway</t>
+          <t>Bedroom</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>Bedroom</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -667,39 +667,39 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G8" t="n">
-        <v>1440</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Hallway</t>
+          <t>Bedroom</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Bedroom</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>门/窗</t>
+          <t>墙</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>223</v>
       </c>
       <c r="G9" t="n">
-        <v>1420</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="10">
@@ -712,11 +712,11 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Bath</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -728,7 +728,7 @@
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>1105</v>
+        <v>528</v>
       </c>
     </row>
     <row r="11">
@@ -741,23 +741,23 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>门/窗</t>
+          <t>墙</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="G11" t="n">
-        <v>1020</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -786,16 +786,16 @@
         <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>2210</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Bath</t>
+          <t>Hallway</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -815,53 +815,53 @@
         <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>1216</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Hallway</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Bedroom</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>门/窗</t>
+          <t>墙</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="G14" t="n">
-        <v>891</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Bath</t>
+          <t>Hallway</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Hallway</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -873,12 +873,12 @@
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>1152</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -886,40 +886,40 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Bedroom</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>门/窗</t>
+          <t>墙</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="G16" t="n">
-        <v>1653</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>Living Room</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Bath</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -931,53 +931,53 @@
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>1248</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Bedroom</t>
+          <t>Living Room</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Bath</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>门/窗</t>
+          <t>墙</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="G18" t="n">
-        <v>700</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Hallway</t>
+          <t>Living Room</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Bedroom</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -989,55 +989,55 @@
         <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>1344</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Bath</t>
+          <t>Living Room</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>门/窗</t>
+          <t>墙</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="G20" t="n">
-        <v>1136</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>3</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Living Room</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
         <v>11</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>Hallway</t>
         </is>
       </c>
-      <c r="C21" t="n">
-        <v>21</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Hallway</t>
-        </is>
-      </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>门/窗</t>
@@ -1047,65 +1047,1486 @@
         <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>1680</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Living Room</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Hallway</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>门/窗</t>
+          <t>墙</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>161</v>
       </c>
       <c r="G22" t="n">
-        <v>1860</v>
+        <v>2737</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
+        <v>12</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Bath</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>13</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Storage</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>门/窗</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>12</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Bath</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>13</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Storage</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>墙</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>161</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2576</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>15</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>16</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Bedroom</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>门/窗</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>2</v>
+      </c>
+      <c r="G25" t="n">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>10</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Bath</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>11</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Hallway</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>门/窗</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>10</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Bath</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>11</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Hallway</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>墙</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>139</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>11</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Hallway</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>16</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Bedroom</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>门/窗</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>11</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Hallway</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>16</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Bedroom</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>墙</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>214</v>
+      </c>
+      <c r="G29" t="n">
+        <v>4824</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>13</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Storage</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>19</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>门/窗</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>17</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Bedroom</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>18</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>门/窗</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>2</v>
+      </c>
+      <c r="G31" t="n">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>11</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Hallway</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>17</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Bedroom</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>门/窗</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>11</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Hallway</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>17</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Bedroom</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>墙</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>109</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2633</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>12</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Bath</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>20</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>门/窗</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>12</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Bath</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>20</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>墙</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>197</v>
+      </c>
+      <c r="G35" t="n">
+        <v>3152</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>11</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Hallway</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>21</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Hallway</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>门/窗</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>11</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Hallway</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>21</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Hallway</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>墙</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>124</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>19</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
         <v>22</v>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>门/窗</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>19</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>22</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>墙</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>171</v>
+      </c>
+      <c r="G39" t="n">
+        <v>3420</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>22</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
         <v>24</v>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>Garage</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>门/窗</t>
         </is>
       </c>
-      <c r="F23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" t="n">
+      <c r="F40" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" t="n">
         <v>1728</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>22</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>24</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Garage</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>墙</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>384</v>
+      </c>
+      <c r="G41" t="n">
+        <v>6912</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Bedroom</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>2</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>墙</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>57</v>
+      </c>
+      <c r="G42" t="n">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Bedroom</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>4</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>墙</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>55</v>
+      </c>
+      <c r="G43" t="n">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Bedroom</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>7</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Hallway</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>墙</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>8</v>
+      </c>
+      <c r="G44" t="n">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Bedroom</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>6</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>墙</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>24</v>
+      </c>
+      <c r="G45" t="n">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>1</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Bedroom</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>14</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>墙</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>14</v>
+      </c>
+      <c r="G46" t="n">
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>3</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Living Room</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>14</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>墙</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>32</v>
+      </c>
+      <c r="G47" t="n">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>3</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Living Room</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>17</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Bedroom</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>墙</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>31</v>
+      </c>
+      <c r="G48" t="n">
+        <v>5332</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>3</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Living Room</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>18</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>墙</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>12</v>
+      </c>
+      <c r="G49" t="n">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>3</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Living Room</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>10</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Bath</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>墙</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>87</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>3</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Living Room</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>16</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Bedroom</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>墙</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>197</v>
+      </c>
+      <c r="G51" t="n">
+        <v>6244</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>3</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Living Room</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>15</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>墙</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>46</v>
+      </c>
+      <c r="G52" t="n">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>5</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Bedroom</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>13</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Storage</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>墙</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>18</v>
+      </c>
+      <c r="G53" t="n">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>5</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Bedroom</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>7</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Hallway</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>墙</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>178</v>
+      </c>
+      <c r="G54" t="n">
+        <v>3560</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>7</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Hallway</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>24</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Garage</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>墙</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>16</v>
+      </c>
+      <c r="G55" t="n">
+        <v>12112</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>7</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Hallway</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>23</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Storage</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>墙</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>3</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>8</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Bath</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>17</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Bedroom</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>墙</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>91</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>9</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Storage</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>17</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Bedroom</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>墙</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>89</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>9</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Storage</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>18</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>墙</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>21</v>
+      </c>
+      <c r="G59" t="n">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>10</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Bath</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>18</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>墙</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>87</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>11</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Hallway</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>13</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Storage</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>墙</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>16</v>
+      </c>
+      <c r="G61" t="n">
+        <v>7968</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>11</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Hallway</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>18</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>墙</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>52</v>
+      </c>
+      <c r="G62" t="n">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>12</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Bath</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>17</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Bedroom</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>墙</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>16</v>
+      </c>
+      <c r="G63" t="n">
+        <v>3664</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>12</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Bath</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>19</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>墙</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>67</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>16</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Bedroom</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>17</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Bedroom</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>墙</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>14</v>
+      </c>
+      <c r="G65" t="n">
+        <v>2226</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>16</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Bedroom</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>21</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Hallway</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>墙</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>98</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>17</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Bedroom</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>21</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Hallway</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>墙</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>98</v>
+      </c>
+      <c r="G67" t="n">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>17</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Bedroom</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>23</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Storage</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>墙</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>192</v>
+      </c>
+      <c r="G68" t="n">
+        <v>3840</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>19</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>20</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>墙</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>165</v>
+      </c>
+      <c r="G69" t="n">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>20</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>22</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>墙</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>197</v>
+      </c>
+      <c r="G70" t="n">
+        <v>3940</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>13</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Storage</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>22</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>墙</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>16</v>
+      </c>
+      <c r="G71" t="n">
+        <v>4544</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>23</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Storage</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>24</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Garage</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>墙</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>195</v>
+      </c>
+      <c r="G72" t="n">
+        <v>3510</v>
       </c>
     </row>
   </sheetData>

--- a/indoor_topology/debug_topology_edges.xlsx
+++ b/indoor_topology/debug_topology_edges.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -559,48 +559,48 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Living Room</t>
+          <t>Bedroom</t>
         </is>
       </c>
       <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Bedroom</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>门/窗</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>墙</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
       <c r="G5" t="n">
-        <v>7</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bedroom</t>
+          <t>Living Room</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Bedroom</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>1520</v>
+        <v>528</v>
       </c>
     </row>
     <row r="7">
@@ -625,11 +625,11 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Hallway</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -641,24 +641,24 @@
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>528</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Living Room</t>
+          <t>Hallway</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Hallway</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -670,7 +670,7 @@
         <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>1232</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="9">
@@ -683,11 +683,11 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -699,24 +699,24 @@
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>1440</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Hallway</t>
+          <t>Living Room</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Bath</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -728,7 +728,7 @@
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>1420</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="11">
@@ -741,11 +741,11 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Bath</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -757,7 +757,7 @@
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>1105</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="12">
@@ -770,11 +770,11 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>Hallway</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -786,24 +786,24 @@
         <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>1020</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Living Room</t>
+          <t>Bath</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Hallway</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -815,24 +815,24 @@
         <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>2210</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Bath</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>Bedroom</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -841,27 +841,27 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>1216</v>
+        <v>891</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Bath</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Bedroom</t>
+          <t>Hallway</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -870,27 +870,27 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>891</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Bath</t>
+          <t>Hallway</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Hallway</t>
+          <t>Bedroom</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -902,24 +902,24 @@
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>1152</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Hallway</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Bedroom</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -931,20 +931,20 @@
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>1653</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>Bedroom</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -957,56 +957,56 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18" t="n">
-        <v>1248</v>
+        <v>700</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
+        <v>11</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Hallway</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>Bedroom</t>
         </is>
       </c>
-      <c r="C19" t="n">
-        <v>18</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>门/窗</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>700</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Hallway</t>
+          <t>Bath</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Bedroom</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1018,24 +1018,24 @@
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>1344</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Bath</t>
+          <t>Hallway</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Hallway</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1047,24 +1047,24 @@
         <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>1136</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Hallway</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Hallway</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1076,12 +1076,12 @@
         <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>1680</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1089,11 +1089,11 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Garage</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1105,35 +1105,6 @@
         <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>1860</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>24</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Garage</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>门/窗</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G24" t="n">
         <v>1728</v>
       </c>
     </row>
